--- a/biology/Zoologie/Adelpha_boreas/Adelpha_boreas.xlsx
+++ b/biology/Zoologie/Adelpha_boreas/Adelpha_boreas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha boreas  est une espèce de papillons de la famille des Nymphalidae, sous famille des Limenitidinae et du genre Adelpha.
 </t>
@@ -511,14 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha boreas a été décrit par Arthur Gardiner Butler en 1866 sous le nom Heterochroa boreas[1].
-Sous-espèces
-Adelpha boreas boreas ; présent au Costa Rica, à Panama, en Colombie, en Bolivie, en Équateur et au Pérou.
-Adelpha boreas kayei Hall, 1939; présent en Guyana[1].
-Noms vernaculaires
-Adelpha boreas se nomme en anglais Gaudy Sister[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha boreas a été décrit par Arthur Gardiner Butler en 1866 sous le nom Heterochroa boreas.
 </t>
         </is>
       </c>
@@ -544,16 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelpha boreas est un papillon d'une envergure de 50 mm à 60 mm, aux ailes antérieures concaves et aux ailes postérieures festonnées[3],[4]. Le dessus est marron marqué aux ailes antérieures d'une large bande orange allant du bord costal au bord externe près de l'angle anal.
-Le revers est marbré de divers tons de marron et de beige nacré formant des lignes et aux ailes antérieures de la même large bande mais de couleur beige nacré.
-Chenille
-La chenille est de couleur foncée[4].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adelpha boreas boreas ; présent au Costa Rica, à Panama, en Colombie, en Bolivie, en Équateur et au Pérou.
+Adelpha boreas kayei Hall, 1939; présent en Guyana.</t>
         </is>
       </c>
     </row>
@@ -578,14 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sa biologie n'est pas connue[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Satyria[1].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha boreas se nomme en anglais Gaudy Sister.
 </t>
         </is>
       </c>
@@ -611,16 +627,229 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha boreas est un papillon d'une envergure de 50 mm à 60 mm, aux ailes antérieures concaves et aux ailes postérieures festonnées,. Le dessus est marron marqué aux ailes antérieures d'une large bande orange allant du bord costal au bord externe près de l'angle anal.
+Le revers est marbré de divers tons de marron et de beige nacré formant des lignes et aux ailes antérieures de la même large bande mais de couleur beige nacré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_boreas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_boreas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est de couleur foncée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adelpha_boreas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_boreas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie n'est pas connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adelpha_boreas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_boreas</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Satyria.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Adelpha_boreas</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_boreas</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha boreas est présent au Costa Rica, à Panama, en Colombie, au Venezuela, en Bolivie, en Équateur,  en Guyana et en Guyane[1],[5]. 
-Biotope
-Adelpha boreas réside dans les forêts humides[2].
-Protection
-Pas de statut de protection particulier[4].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha boreas est présent au Costa Rica, à Panama, en Colombie, au Venezuela, en Bolivie, en Équateur,  en Guyana et en Guyane,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Adelpha_boreas</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_boreas</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha boreas réside dans les forêts humides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Adelpha_boreas</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_boreas</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
